--- a/Applied Statistics in Excel Assessment 13-02-2024.xlsx
+++ b/Applied Statistics in Excel Assessment 13-02-2024.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Tops Technologies\02 Statistics\Applied Stat\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0F117E3-8FDB-4CCB-AD5D-E9E43B7674A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1FE6753-9D7C-4EF6-9994-896E317D6D05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{3F478B9B-EA04-4E39-A492-9B4B087B5418}"/>
+    <workbookView xWindow="0" yWindow="2430" windowWidth="15375" windowHeight="7785" xr2:uid="{3F478B9B-EA04-4E39-A492-9B4B087B5418}"/>
   </bookViews>
   <sheets>
     <sheet name="Assessment" sheetId="1" r:id="rId1"/>
@@ -346,9 +346,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -370,6 +367,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -378,9 +381,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -699,7 +699,7 @@
   <dimension ref="A1:G32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection sqref="A1:G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.7109375" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -708,549 +708,544 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="12"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="13"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="13" t="s">
+      <c r="A3" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="B3" s="13"/>
-      <c r="C3" s="13"/>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="13"/>
+      <c r="B3" s="10"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
     </row>
     <row r="4" spans="1:7" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="5" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2" t="s">
+      <c r="B5" s="9"/>
+      <c r="C5" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2" t="s">
+      <c r="D5" s="9"/>
+      <c r="E5" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2" t="s">
+      <c r="F5" s="9"/>
+      <c r="G5" s="9" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="E6" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="F6" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="G6" s="2"/>
+      <c r="G6" s="9"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="4">
+      <c r="A7" s="3">
         <v>39083</v>
       </c>
-      <c r="B7" s="5">
+      <c r="B7" s="4">
         <v>15000</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C7" s="3">
         <v>39083</v>
       </c>
-      <c r="D7" s="5">
+      <c r="D7" s="4">
         <v>17500</v>
       </c>
-      <c r="E7" s="4">
+      <c r="E7" s="3">
         <v>39083</v>
       </c>
-      <c r="F7" s="5">
+      <c r="F7" s="4">
         <v>13000</v>
       </c>
-      <c r="G7" s="6">
+      <c r="G7" s="5">
         <f>_xlfn.VAR.P(B7:B18,D7:D18,F7:F18)</f>
         <v>6170524.6913580243</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="4">
+      <c r="A8" s="3">
         <v>39114</v>
       </c>
-      <c r="B8" s="5">
+      <c r="B8" s="4">
         <v>14500</v>
       </c>
-      <c r="C8" s="4">
+      <c r="C8" s="3">
         <v>39114</v>
       </c>
-      <c r="D8" s="5">
+      <c r="D8" s="4">
         <v>12000</v>
       </c>
-      <c r="E8" s="4">
+      <c r="E8" s="3">
         <v>39114</v>
       </c>
-      <c r="F8" s="5">
+      <c r="F8" s="4">
         <v>15000</v>
       </c>
-      <c r="G8" s="7"/>
+      <c r="G8" s="6"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="4">
+      <c r="A9" s="3">
         <v>39142</v>
       </c>
-      <c r="B9" s="5">
+      <c r="B9" s="4">
         <v>14500</v>
       </c>
-      <c r="C9" s="4">
+      <c r="C9" s="3">
         <v>39142</v>
       </c>
-      <c r="D9" s="5">
+      <c r="D9" s="4">
         <v>16000</v>
       </c>
-      <c r="E9" s="4">
+      <c r="E9" s="3">
         <v>39142</v>
       </c>
-      <c r="F9" s="5">
+      <c r="F9" s="4">
         <v>14000</v>
       </c>
-      <c r="G9" s="8"/>
+      <c r="G9" s="7"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="4">
+      <c r="A10" s="3">
         <v>39173</v>
       </c>
-      <c r="B10" s="5">
+      <c r="B10" s="4">
         <v>14000</v>
       </c>
-      <c r="C10" s="4">
+      <c r="C10" s="3">
         <v>39173</v>
       </c>
-      <c r="D10" s="5">
+      <c r="D10" s="4">
         <v>19000</v>
       </c>
-      <c r="E10" s="4">
+      <c r="E10" s="3">
         <v>39173</v>
       </c>
-      <c r="F10" s="5">
+      <c r="F10" s="4">
         <v>16500</v>
       </c>
-      <c r="G10" s="8"/>
+      <c r="G10" s="7"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="4">
+      <c r="A11" s="3">
         <v>39203</v>
       </c>
-      <c r="B11" s="5">
+      <c r="B11" s="4">
         <v>16000</v>
       </c>
-      <c r="C11" s="4">
+      <c r="C11" s="3">
         <v>39203</v>
       </c>
-      <c r="D11" s="5">
+      <c r="D11" s="4">
         <v>17000</v>
       </c>
-      <c r="E11" s="4">
+      <c r="E11" s="3">
         <v>39203</v>
       </c>
-      <c r="F11" s="5">
+      <c r="F11" s="4">
         <v>20000</v>
       </c>
-      <c r="G11" s="8"/>
+      <c r="G11" s="7"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="4">
+      <c r="A12" s="3">
         <v>39234</v>
       </c>
-      <c r="B12" s="5">
+      <c r="B12" s="4">
         <v>9500</v>
       </c>
-      <c r="C12" s="4">
+      <c r="C12" s="3">
         <v>39234</v>
       </c>
-      <c r="D12" s="5">
+      <c r="D12" s="4">
         <v>10500</v>
       </c>
-      <c r="E12" s="4">
+      <c r="E12" s="3">
         <v>39234</v>
       </c>
-      <c r="F12" s="5">
+      <c r="F12" s="4">
         <v>12500</v>
       </c>
-      <c r="G12" s="8"/>
+      <c r="G12" s="7"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="4">
+      <c r="A13" s="3">
         <v>39264</v>
       </c>
-      <c r="B13" s="5">
+      <c r="B13" s="4">
         <v>13500</v>
       </c>
-      <c r="C13" s="4">
+      <c r="C13" s="3">
         <v>39264</v>
       </c>
-      <c r="D13" s="5">
+      <c r="D13" s="4">
         <v>11000</v>
       </c>
-      <c r="E13" s="4">
+      <c r="E13" s="3">
         <v>39264</v>
       </c>
-      <c r="F13" s="5">
+      <c r="F13" s="4">
         <v>14000</v>
       </c>
-      <c r="G13" s="8"/>
+      <c r="G13" s="7"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="4">
+      <c r="A14" s="3">
         <v>39295</v>
       </c>
-      <c r="B14" s="5">
+      <c r="B14" s="4">
         <v>17000</v>
       </c>
-      <c r="C14" s="4">
+      <c r="C14" s="3">
         <v>39295</v>
       </c>
-      <c r="D14" s="5">
+      <c r="D14" s="4">
         <v>12500</v>
       </c>
-      <c r="E14" s="4">
+      <c r="E14" s="3">
         <v>39295</v>
       </c>
-      <c r="F14" s="5">
+      <c r="F14" s="4">
         <v>18500</v>
       </c>
-      <c r="G14" s="8"/>
+      <c r="G14" s="7"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="4">
+      <c r="A15" s="3">
         <v>39326</v>
       </c>
-      <c r="B15" s="5">
+      <c r="B15" s="4">
         <v>11000</v>
       </c>
-      <c r="C15" s="4">
+      <c r="C15" s="3">
         <v>39326</v>
       </c>
-      <c r="D15" s="5">
+      <c r="D15" s="4">
         <v>13000</v>
       </c>
-      <c r="E15" s="4">
+      <c r="E15" s="3">
         <v>39326</v>
       </c>
-      <c r="F15" s="5">
+      <c r="F15" s="4">
         <v>14500</v>
       </c>
-      <c r="G15" s="8"/>
+      <c r="G15" s="7"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="4">
+      <c r="A16" s="3">
         <v>39356</v>
       </c>
-      <c r="B16" s="5">
+      <c r="B16" s="4">
         <v>15000</v>
       </c>
-      <c r="C16" s="4">
+      <c r="C16" s="3">
         <v>39356</v>
       </c>
-      <c r="D16" s="5">
+      <c r="D16" s="4">
         <v>15500</v>
       </c>
-      <c r="E16" s="4">
+      <c r="E16" s="3">
         <v>39356</v>
       </c>
-      <c r="F16" s="5">
+      <c r="F16" s="4">
         <v>13000</v>
       </c>
-      <c r="G16" s="8"/>
+      <c r="G16" s="7"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="4">
+      <c r="A17" s="3">
         <v>39387</v>
       </c>
-      <c r="B17" s="5">
+      <c r="B17" s="4">
         <v>17500</v>
       </c>
-      <c r="C17" s="4">
+      <c r="C17" s="3">
         <v>39387</v>
       </c>
-      <c r="D17" s="5">
+      <c r="D17" s="4">
         <v>15000</v>
       </c>
-      <c r="E17" s="4">
+      <c r="E17" s="3">
         <v>39387</v>
       </c>
-      <c r="F17" s="5">
+      <c r="F17" s="4">
         <v>13000</v>
       </c>
-      <c r="G17" s="8"/>
+      <c r="G17" s="7"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="4">
+      <c r="A18" s="3">
         <v>39417</v>
       </c>
-      <c r="B18" s="5">
+      <c r="B18" s="4">
         <v>18000</v>
       </c>
-      <c r="C18" s="4">
+      <c r="C18" s="3">
         <v>39417</v>
       </c>
-      <c r="D18" s="5">
+      <c r="D18" s="4">
         <v>17500</v>
       </c>
-      <c r="E18" s="4">
+      <c r="E18" s="3">
         <v>39417</v>
       </c>
-      <c r="F18" s="5">
+      <c r="F18" s="4">
         <v>17000</v>
       </c>
-      <c r="G18" s="9"/>
+      <c r="G18" s="8"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="13" t="s">
+      <c r="A21" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="B21" s="13"/>
-      <c r="C21" s="13"/>
-      <c r="D21" s="13"/>
-      <c r="E21" s="13"/>
-      <c r="F21" s="13"/>
-      <c r="G21" s="13"/>
+      <c r="B21" s="10"/>
+      <c r="C21" s="10"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="10"/>
+      <c r="G21" s="10"/>
     </row>
     <row r="22" spans="1:7" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="23" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="2" t="s">
+      <c r="A23" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="B23" s="2"/>
-      <c r="C23" s="2" t="s">
+      <c r="B23" s="9"/>
+      <c r="C23" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2" t="s">
+      <c r="D23" s="9"/>
+      <c r="E23" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="F23" s="2"/>
-      <c r="G23" s="2" t="s">
+      <c r="F23" s="9"/>
+      <c r="G23" s="9" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="3" t="s">
+      <c r="A24" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B24" s="3" t="s">
+      <c r="B24" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C24" s="3" t="s">
+      <c r="C24" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D24" s="3" t="s">
+      <c r="D24" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E24" s="3" t="s">
+      <c r="E24" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F24" s="3" t="s">
+      <c r="F24" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G24" s="2"/>
+      <c r="G24" s="9"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="5" t="s">
+      <c r="A25" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B25" s="5">
+      <c r="B25" s="4">
         <v>176</v>
       </c>
-      <c r="C25" s="5" t="s">
+      <c r="C25" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="D25" s="5">
+      <c r="D25" s="4">
         <v>179</v>
       </c>
-      <c r="E25" s="5" t="s">
+      <c r="E25" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="F25" s="5">
+      <c r="F25" s="4">
         <v>179</v>
       </c>
-      <c r="G25" s="6">
+      <c r="G25" s="5">
         <f>_xlfn.VAR.S(B25:B31,D25:D31,F25:F31)</f>
         <v>9.2619047619047628</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="5" t="s">
+      <c r="A26" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B26" s="5">
+      <c r="B26" s="4">
         <v>174</v>
       </c>
-      <c r="C26" s="5" t="s">
+      <c r="C26" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D26" s="5">
+      <c r="D26" s="4">
         <v>173</v>
       </c>
-      <c r="E26" s="5" t="s">
+      <c r="E26" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="F26" s="5">
+      <c r="F26" s="4">
         <v>178</v>
       </c>
-      <c r="G26" s="7"/>
+      <c r="G26" s="6"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="5" t="s">
+      <c r="A27" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B27" s="5">
+      <c r="B27" s="4">
         <v>181</v>
       </c>
-      <c r="C27" s="5" t="s">
+      <c r="C27" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="5">
+      <c r="D27" s="4">
         <v>184</v>
       </c>
-      <c r="E27" s="5" t="s">
+      <c r="E27" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="F27" s="5">
+      <c r="F27" s="4">
         <v>176</v>
       </c>
-      <c r="G27" s="8"/>
+      <c r="G27" s="7"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="5" t="s">
+      <c r="A28" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B28" s="5">
+      <c r="B28" s="4">
         <v>178</v>
       </c>
-      <c r="C28" s="5" t="s">
+      <c r="C28" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="D28" s="5">
+      <c r="D28" s="4">
         <v>175</v>
       </c>
-      <c r="E28" s="5" t="s">
+      <c r="E28" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="F28" s="5">
+      <c r="F28" s="4">
         <v>181</v>
       </c>
-      <c r="G28" s="8"/>
+      <c r="G28" s="7"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="5" t="s">
+      <c r="A29" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B29" s="5">
+      <c r="B29" s="4">
         <v>183</v>
       </c>
-      <c r="C29" s="5" t="s">
+      <c r="C29" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="5">
+      <c r="D29" s="4">
         <v>172</v>
       </c>
-      <c r="E29" s="5" t="s">
+      <c r="E29" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="F29" s="5">
+      <c r="F29" s="4">
         <v>177</v>
       </c>
-      <c r="G29" s="8"/>
+      <c r="G29" s="7"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="5" t="s">
+      <c r="A30" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B30" s="5">
+      <c r="B30" s="4">
         <v>176</v>
       </c>
-      <c r="C30" s="5" t="s">
+      <c r="C30" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="D30" s="5">
+      <c r="D30" s="4">
         <v>176</v>
       </c>
-      <c r="E30" s="5" t="s">
+      <c r="E30" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="F30" s="5">
+      <c r="F30" s="4">
         <v>179</v>
       </c>
-      <c r="G30" s="8"/>
+      <c r="G30" s="7"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="5" t="s">
+      <c r="A31" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B31" s="5">
+      <c r="B31" s="4">
         <v>177</v>
       </c>
-      <c r="C31" s="5" t="s">
+      <c r="C31" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="D31" s="5">
+      <c r="D31" s="4">
         <v>177</v>
       </c>
-      <c r="E31" s="5" t="s">
+      <c r="E31" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="F31" s="5">
+      <c r="F31" s="4">
         <v>176</v>
       </c>
-      <c r="G31" s="8"/>
+      <c r="G31" s="7"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="5" t="s">
+      <c r="A32" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B32" s="5" t="s">
+      <c r="B32" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C32" s="5" t="s">
+      <c r="C32" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="5" t="s">
+      <c r="D32" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E32" s="5" t="s">
+      <c r="E32" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="F32" s="5" t="s">
+      <c r="F32" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="G32" s="9"/>
+      <c r="G32" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="G8:G18"/>
-    <mergeCell ref="G26:G32"/>
-    <mergeCell ref="G23:G24"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="C23:D23"/>
     <mergeCell ref="A23:B23"/>
     <mergeCell ref="A3:G3"/>
     <mergeCell ref="A1:G1"/>
@@ -1259,6 +1254,11 @@
     <mergeCell ref="C5:D5"/>
     <mergeCell ref="E5:F5"/>
     <mergeCell ref="G5:G6"/>
+    <mergeCell ref="G8:G18"/>
+    <mergeCell ref="G26:G32"/>
+    <mergeCell ref="G23:G24"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="C23:D23"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
